--- a/Team-Data/2012-13/1-19-2012-13.xlsx
+++ b/Team-Data/2012-13/1-19-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.55</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,10 +751,10 @@
         <v>36.9</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
         <v>8.699999999999999</v>
@@ -702,28 +769,28 @@
         <v>13.2</v>
       </c>
       <c r="P2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.702</v>
+        <v>0.703</v>
       </c>
       <c r="R2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V2" t="n">
         <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -732,7 +799,7 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
@@ -741,10 +808,10 @@
         <v>95.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -792,19 +859,19 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
         <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -819,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -956,16 +1023,16 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
         <v>24</v>
       </c>
-      <c r="AO3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -989,13 +1056,13 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
       </c>
       <c r="AF4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1138,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1150,13 +1217,13 @@
         <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1180,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,7 +1297,7 @@
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.2</v>
+        <v>82.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1239,19 +1306,19 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.347</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
@@ -1275,22 +1342,22 @@
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="Z5" t="n">
         <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB5" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1302,13 +1369,13 @@
         <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1323,19 +1390,19 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1344,25 +1411,25 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
         <v>4.6</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="O6" t="n">
         <v>18.4</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
         <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T6" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
         <v>22.8</v>
@@ -1460,40 +1527,40 @@
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8</v>
       </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1517,28 +1584,28 @@
         <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>18</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1606,16 +1673,16 @@
         <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R7" t="n">
         <v>13.1</v>
@@ -1627,13 +1694,13 @@
         <v>41.5</v>
       </c>
       <c r="U7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V7" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X7" t="n">
         <v>3.5</v>
@@ -1645,16 +1712,16 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
         <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1687,10 +1754,10 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>19</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>9</v>
@@ -1875,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2054,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2072,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2218,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -2233,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2266,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2322,37 +2389,37 @@
         <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.796</v>
+        <v>0.793</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
         <v>22.9</v>
@@ -2361,49 +2428,49 @@
         <v>15.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,16 +2479,16 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>19</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2451,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.752</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
         <v>42.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>8.699999999999999</v>
@@ -2549,43 +2616,43 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="AA12" t="n">
         <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.5</v>
+        <v>105.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,13 +2673,13 @@
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2630,16 +2697,16 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>6</v>
-      </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2776,13 +2843,13 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2809,13 +2876,13 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -2850,70 +2917,70 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M14" t="n">
         <v>20.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
         <v>10.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
@@ -2922,16 +2989,16 @@
         <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2946,10 +3013,10 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2958,31 +3025,31 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3158,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
         <v>13</v>
@@ -3173,10 +3240,10 @@
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="H16" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J16" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O16" t="n">
         <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.79</v>
+        <v>0.796</v>
       </c>
       <c r="R16" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S16" t="n">
         <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3274,28 +3341,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
@@ -3304,13 +3371,13 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>14</v>
@@ -3331,16 +3398,16 @@
         <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AR16" t="n">
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3611,58 +3678,58 @@
         <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y18" t="n">
         <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3689,13 +3756,13 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3704,16 +3771,16 @@
         <v>14</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3722,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB18" t="n">
         <v>16</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3760,91 +3827,91 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>0.459</v>
+        <v>0.444</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
-        <v>81.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.293</v>
+        <v>0.295</v>
       </c>
       <c r="O19" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.739</v>
+        <v>0.736</v>
       </c>
       <c r="R19" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T19" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
         <v>5.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,40 +3932,40 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -3942,34 +4009,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.325</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J20" t="n">
         <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.367</v>
@@ -3978,70 +4045,70 @@
         <v>14.3</v>
       </c>
       <c r="P20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.779</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
         <v>14.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
         <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.8</v>
+        <v>92.3</v>
       </c>
       <c r="AC20" t="n">
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4074,19 +4141,19 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -4220,10 +4287,10 @@
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4250,7 +4317,7 @@
         <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4405,7 +4472,7 @@
         <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>10</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4581,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,13 +4678,13 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4629,10 +4696,10 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4778,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,10 +4857,10 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4969,22 +5036,22 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="H26" t="n">
         <v>48.9</v>
@@ -5061,34 +5128,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="W26" t="n">
         <v>7.5</v>
@@ -5100,37 +5167,37 @@
         <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
@@ -5142,22 +5209,22 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
         <v>15</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>18</v>
@@ -5184,7 +5251,7 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
         <v>0.439</v>
@@ -5246,28 +5313,28 @@
         <v>18.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.354</v>
+        <v>0.356</v>
       </c>
       <c r="O27" t="n">
         <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
         <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.6</v>
@@ -5276,13 +5343,13 @@
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
         <v>19.6</v>
@@ -5291,10 +5358,10 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,22 +5373,22 @@
         <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN27" t="n">
         <v>14</v>
@@ -5330,10 +5397,10 @@
         <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5342,7 +5409,7 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
@@ -5354,19 +5421,19 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.744</v>
+        <v>0.738</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,7 +5483,7 @@
         <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.486</v>
@@ -5425,61 +5492,61 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O28" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,13 +5573,13 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>3</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5673,13 +5740,13 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5697,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
@@ -5715,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.537</v>
+        <v>0.525</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L30" t="n">
         <v>6.5</v>
@@ -5795,16 +5862,16 @@
         <v>0.373</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P30" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q30" t="n">
         <v>0.768</v>
       </c>
       <c r="R30" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.8</v>
@@ -5813,37 +5880,37 @@
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
         <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,16 +5919,16 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>20</v>
@@ -5873,16 +5940,16 @@
         <v>8</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
@@ -5891,22 +5958,22 @@
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.211</v>
+        <v>0.216</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5962,40 +6029,40 @@
         <v>34.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K31" t="n">
         <v>0.417</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O31" t="n">
         <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S31" t="n">
         <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.4</v>
@@ -6007,22 +6074,22 @@
         <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-6</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6061,37 +6128,37 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-19-2012-13</t>
+          <t>2013-01-19</t>
         </is>
       </c>
     </row>
